--- a/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C63D1CBC-55C7-4091-85C9-A0FA3689F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC77461-3CA7-4867-8300-9D0842202351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FD5BA81-182B-4A42-94F4-9A1EDCE4703F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B31C1C-AF1A-46B9-95EB-EF18A78C9B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="324">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -536,79 +536,79 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>44,45%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>40,57%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>29,34%</t>
+    <t>29,46%</t>
   </si>
   <si>
     <t>35,09%</t>
@@ -617,19 +617,19 @@
     <t>76,94%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>59,43%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>67,9%</t>
@@ -638,367 +638,379 @@
     <t>64,91%</t>
   </si>
   <si>
-    <t>70,66%</t>
+    <t>70,54%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>34,75%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>68,71%</t>
   </si>
   <si>
-    <t>65,25%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>27,42%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>72,58%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C4650F-1311-424C-A354-060F45C75F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9758E024-3904-4828-95B0-6E0816A53541}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E197ED-4509-4D3D-B13B-3E3B50B18413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C8E27-9610-410C-8F87-2AF667324852}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4454,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A16D20-FFE3-4CBA-BF04-BACA2B6206C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E483C-6916-45E4-AA96-2FC55D9A0ECC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5401,7 +5413,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5452,7 +5464,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141729</v>
+        <v>141730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5985,7 +5997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EC7ECA-F11B-4A8E-ABA7-0EF2EF15B36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EC47AC-430C-4D66-ABA5-CD6C16B43075}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6762,10 +6774,10 @@
         <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6792,13 @@
         <v>151476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -6795,13 +6807,13 @@
         <v>143033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>502</v>
@@ -6810,13 +6822,13 @@
         <v>294509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6896,13 @@
         <v>81167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>228</v>
@@ -6899,13 +6911,13 @@
         <v>118527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
@@ -6914,13 +6926,13 @@
         <v>199694</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6947,13 @@
         <v>196056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -6950,13 +6962,13 @@
         <v>157095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -6965,13 +6977,13 @@
         <v>353151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7051,13 @@
         <v>167501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
@@ -7054,13 +7066,13 @@
         <v>394193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -7069,13 +7081,13 @@
         <v>561694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7102,13 @@
         <v>460253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
@@ -7105,13 +7117,13 @@
         <v>410010</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>998</v>
@@ -7120,13 +7132,13 @@
         <v>870263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7206,13 @@
         <v>108622</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>358</v>
@@ -7209,13 +7221,13 @@
         <v>262664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -7224,13 +7236,13 @@
         <v>371286</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7257,13 @@
         <v>750806</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -7260,10 +7272,10 @@
         <v>602367</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>302</v>
@@ -7367,10 +7379,10 @@
         <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>3165</v>
@@ -7379,13 +7391,13 @@
         <v>2334807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7412,13 @@
         <v>2593657</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>3068</v>
@@ -7415,28 +7427,28 @@
         <v>2258913</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>5570</v>
       </c>
       <c r="N29" s="7">
-        <v>4852568</v>
+        <v>4852569</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,7 +7490,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC77461-3CA7-4867-8300-9D0842202351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0A24D2-8AA4-48D9-A803-076B78826A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B31C1C-AF1A-46B9-95EB-EF18A78C9B7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{648641AC-6F84-4093-91C8-8E377D69CB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -401,7 +401,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9758E024-3904-4828-95B0-6E0816A53541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267F8507-6E8D-4D68-973E-3DDA90C16551}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2953,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C8E27-9610-410C-8F87-2AF667324852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E00E216-206E-409E-B1AB-E1F4417C48F3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,7 +4466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2E483C-6916-45E4-AA96-2FC55D9A0ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5AA814-A0D3-4FEA-A0CE-D5C46058DB81}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5997,7 +5997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EC47AC-430C-4D66-ABA5-CD6C16B43075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346564-8199-4F55-9875-0245A996D935}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0A24D2-8AA4-48D9-A803-076B78826A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBCDDB1-57C6-4D43-9538-59FF5A334688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{648641AC-6F84-4093-91C8-8E377D69CB7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4B6ABF6-84F4-4ED9-9320-BFCC58A9478E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="320">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -536,79 +536,79 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>44,45%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>40,57%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>29,46%</t>
+    <t>29,34%</t>
   </si>
   <si>
     <t>35,09%</t>
@@ -617,19 +617,19 @@
     <t>76,94%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>59,43%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>67,9%</t>
@@ -638,379 +638,367 @@
     <t>64,91%</t>
   </si>
   <si>
-    <t>70,54%</t>
+    <t>70,66%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>41,72%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>34,75%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>68,71%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>65,25%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>43,0%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>27,42%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>72,58%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267F8507-6E8D-4D68-973E-3DDA90C16551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF19F91-381C-4B27-9675-28B50571FCCD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2953,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E00E216-206E-409E-B1AB-E1F4417C48F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C1866E-1FB8-4E43-B0AC-CB8AE484E8C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5AA814-A0D3-4FEA-A0CE-D5C46058DB81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF18A3C0-5FC5-43CF-999F-44260F36F372}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5413,7 +5401,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5464,7 +5452,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>141730</v>
+        <v>141729</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5997,7 +5985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346564-8199-4F55-9875-0245A996D935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152DC4C-4988-412C-825A-52E670D24B39}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6774,10 +6762,10 @@
         <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6780,13 @@
         <v>151476</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -6807,13 +6795,13 @@
         <v>143033</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>502</v>
@@ -6822,13 +6810,13 @@
         <v>294509</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6884,13 @@
         <v>81167</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>228</v>
@@ -6911,13 +6899,13 @@
         <v>118527</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
@@ -6926,13 +6914,13 @@
         <v>199694</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6935,13 @@
         <v>196056</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -6962,13 +6950,13 @@
         <v>157095</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -6977,13 +6965,13 @@
         <v>353151</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7039,13 @@
         <v>167501</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
@@ -7066,13 +7054,13 @@
         <v>394193</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
@@ -7081,13 +7069,13 @@
         <v>561694</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7090,13 @@
         <v>460253</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
@@ -7117,13 +7105,13 @@
         <v>410010</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>998</v>
@@ -7132,13 +7120,13 @@
         <v>870263</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7194,13 @@
         <v>108622</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>358</v>
@@ -7221,13 +7209,13 @@
         <v>262664</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -7236,13 +7224,13 @@
         <v>371286</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7245,13 @@
         <v>750806</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -7272,10 +7260,10 @@
         <v>602367</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>302</v>
@@ -7379,10 +7367,10 @@
         <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>3165</v>
@@ -7391,13 +7379,13 @@
         <v>2334807</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7400,13 @@
         <v>2593657</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>3068</v>
@@ -7427,28 +7415,28 @@
         <v>2258913</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>5570</v>
       </c>
       <c r="N29" s="7">
-        <v>4852569</v>
+        <v>4852568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,7 +7478,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBCDDB1-57C6-4D43-9538-59FF5A334688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFFB514-C85C-4FE0-93F3-52F0979D9D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4B6ABF6-84F4-4ED9-9320-BFCC58A9478E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C0ADC265-87B2-4057-8146-57289E85E79B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="327">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -272,7 +272,16 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2012 (Tasa respuesta: 39,99%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -305,22 +314,22 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -533,472 +542,484 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>81,04%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF19F91-381C-4B27-9675-28B50571FCCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55984611-48CD-4F28-994C-B1F378EC1D4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C1866E-1FB8-4E43-B0AC-CB8AE484E8C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3414BC-E728-4CF1-8D12-00BAF2783BFE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3061,12 +3082,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>77</v>
@@ -3074,28 +3097,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,43 +3131,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126219</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>64369</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N5" s="7">
+        <v>190589</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,43 +3182,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>126219</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="I6" s="7">
+        <v>64369</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="N6" s="7">
+        <v>190589</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3223,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3256,7 +3295,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3271,7 +3310,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3363,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3378,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3393,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,7 +3450,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3426,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3441,7 +3480,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3518,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3533,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3548,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,46 +3596,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>317347</v>
+        <v>191128</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3608,10 +3647,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D15" s="7">
-        <v>317347</v>
+        <v>191128</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3623,10 +3662,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3638,10 +3677,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N15" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3673,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3688,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3703,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3760,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3736,7 +3775,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3751,7 +3790,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3828,7 +3867,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3843,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3858,7 +3897,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3915,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3891,7 +3930,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -3906,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3983,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4013,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4070,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -4061,7 +4100,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4138,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4153,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4186,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -4201,7 +4240,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -4293,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4308,7 +4347,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4323,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4380,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -4350,13 +4389,13 @@
         <v>984</v>
       </c>
       <c r="I29" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -4371,7 +4410,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -4401,7 +4440,7 @@
         <v>984</v>
       </c>
       <c r="I30" s="7">
-        <v>1058638</v>
+        <v>1058637</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -4454,7 +4493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF18A3C0-5FC5-43CF-999F-44260F36F372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2864C5BE-B8B7-4F4B-BB0B-FCC7FBAB60AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,7 +4510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4584,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4599,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4614,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,7 +4671,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4647,7 +4686,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4662,7 +4701,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4739,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4754,7 +4793,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4769,7 +4808,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,7 +4826,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4802,7 +4841,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4817,7 +4856,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4894,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4909,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4924,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4981,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4957,7 +4996,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4972,7 +5011,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5049,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5064,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5079,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5136,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -5112,7 +5151,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -5127,7 +5166,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5204,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5219,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5234,7 +5273,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5291,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5267,7 +5306,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5282,7 +5321,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5359,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5374,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5389,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5446,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5422,7 +5461,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5437,7 +5476,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5514,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5544,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5601,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5592,7 +5631,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5669,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5684,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5699,7 +5738,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,7 +5756,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -5732,7 +5771,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5747,7 +5786,7 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -5824,7 +5863,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5839,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5854,7 +5893,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5911,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -5887,7 +5926,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>19</v>
@@ -5902,7 +5941,7 @@
         <v>17</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>19</v>
@@ -5985,7 +6024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152DC4C-4988-412C-825A-52E670D24B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBA7A38-F962-4E1F-A0F0-F890484B9150}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6002,7 +6041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6106,46 +6145,46 @@
         <v>101</v>
       </c>
       <c r="D4" s="7">
-        <v>76479</v>
+        <v>90052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
       </c>
       <c r="I4" s="7">
-        <v>120644</v>
+        <v>127327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
       </c>
       <c r="N4" s="7">
-        <v>197122</v>
+        <v>217380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,46 +6196,46 @@
         <v>230</v>
       </c>
       <c r="D5" s="7">
-        <v>183819</v>
+        <v>221391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>150759</v>
+        <v>162308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
       </c>
       <c r="N5" s="7">
-        <v>334578</v>
+        <v>383697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6247,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -6223,7 +6262,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -6238,7 +6277,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -6261,46 +6300,46 @@
         <v>99</v>
       </c>
       <c r="D7" s="7">
-        <v>119505</v>
+        <v>115416</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>308</v>
       </c>
       <c r="I7" s="7">
-        <v>224443</v>
+        <v>207405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>407</v>
       </c>
       <c r="N7" s="7">
-        <v>343948</v>
+        <v>322821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,46 +6351,46 @@
         <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>398722</v>
+        <v>401977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
       </c>
       <c r="I8" s="7">
-        <v>328773</v>
+        <v>306320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
       </c>
       <c r="N8" s="7">
-        <v>727495</v>
+        <v>708297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6402,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6378,7 +6417,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6393,7 +6432,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6416,46 +6455,46 @@
         <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>92626</v>
+        <v>89583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>253</v>
       </c>
       <c r="I10" s="7">
-        <v>156172</v>
+        <v>145314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>369</v>
       </c>
       <c r="N10" s="7">
-        <v>248798</v>
+        <v>234897</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,46 +6506,46 @@
         <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>229614</v>
+        <v>226467</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
       </c>
       <c r="I11" s="7">
-        <v>217112</v>
+        <v>203814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>527</v>
       </c>
       <c r="N11" s="7">
-        <v>446726</v>
+        <v>430281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,7 +6557,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6533,7 +6572,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6548,7 +6587,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6571,46 +6610,46 @@
         <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>99329</v>
+        <v>95148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>300</v>
       </c>
       <c r="I13" s="7">
-        <v>178792</v>
+        <v>164857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>392</v>
       </c>
       <c r="N13" s="7">
-        <v>278121</v>
+        <v>260005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,46 +6661,46 @@
         <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>222911</v>
+        <v>217409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>299</v>
       </c>
       <c r="I14" s="7">
-        <v>249764</v>
+        <v>310861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>499</v>
       </c>
       <c r="N14" s="7">
-        <v>472675</v>
+        <v>528269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6712,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6688,7 +6727,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6703,7 +6742,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6726,46 +6765,46 @@
         <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>45272</v>
+        <v>41135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
       </c>
       <c r="I16" s="7">
-        <v>88870</v>
+        <v>80539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
       </c>
       <c r="N16" s="7">
-        <v>134142</v>
+        <v>121674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,46 +6816,46 @@
         <v>212</v>
       </c>
       <c r="D17" s="7">
-        <v>151476</v>
+        <v>137607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
       </c>
       <c r="I17" s="7">
-        <v>143033</v>
+        <v>128117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>502</v>
       </c>
       <c r="N17" s="7">
-        <v>294509</v>
+        <v>265724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6867,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6843,7 +6882,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6858,7 +6897,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6881,46 +6920,46 @@
         <v>122</v>
       </c>
       <c r="D19" s="7">
-        <v>81167</v>
+        <v>78217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>228</v>
       </c>
       <c r="I19" s="7">
-        <v>118527</v>
+        <v>110374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>199694</v>
+        <v>188591</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,46 +6971,46 @@
         <v>249</v>
       </c>
       <c r="D20" s="7">
-        <v>196056</v>
+        <v>191419</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>157095</v>
+        <v>146682</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
       </c>
       <c r="N20" s="7">
-        <v>353151</v>
+        <v>338101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +7022,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6998,7 +7037,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -7013,7 +7052,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -7036,46 +7075,46 @@
         <v>158</v>
       </c>
       <c r="D22" s="7">
-        <v>167501</v>
+        <v>164916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>403</v>
       </c>
       <c r="I22" s="7">
-        <v>394193</v>
+        <v>466963</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>561</v>
       </c>
       <c r="N22" s="7">
-        <v>561694</v>
+        <v>631879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,46 +7126,46 @@
         <v>441</v>
       </c>
       <c r="D23" s="7">
-        <v>460253</v>
+        <v>459363</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
       </c>
       <c r="I23" s="7">
-        <v>410010</v>
+        <v>382302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>998</v>
       </c>
       <c r="N23" s="7">
-        <v>870263</v>
+        <v>841665</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,7 +7177,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -7153,7 +7192,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -7168,7 +7207,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -7191,46 +7230,46 @@
         <v>118</v>
       </c>
       <c r="D25" s="7">
-        <v>108622</v>
+        <v>92432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>358</v>
       </c>
       <c r="I25" s="7">
-        <v>262664</v>
+        <v>219175</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
       </c>
       <c r="N25" s="7">
-        <v>371286</v>
+        <v>311608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,46 +7281,46 @@
         <v>644</v>
       </c>
       <c r="D26" s="7">
-        <v>750806</v>
+        <v>836288</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
       </c>
       <c r="I26" s="7">
-        <v>602367</v>
+        <v>495676</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1346</v>
       </c>
       <c r="N26" s="7">
-        <v>1353173</v>
+        <v>1331964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,7 +7332,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7308,7 +7347,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7323,7 +7362,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7346,46 +7385,46 @@
         <v>873</v>
       </c>
       <c r="D28" s="7">
-        <v>790501</v>
+        <v>766900</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>2292</v>
       </c>
       <c r="I28" s="7">
-        <v>1544305</v>
+        <v>1521954</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>3165</v>
       </c>
       <c r="N28" s="7">
-        <v>2334807</v>
+        <v>2288854</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,46 +7436,46 @@
         <v>2502</v>
       </c>
       <c r="D29" s="7">
-        <v>2593657</v>
+        <v>2691920</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>3068</v>
       </c>
       <c r="I29" s="7">
-        <v>2258913</v>
+        <v>2136079</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>5570</v>
       </c>
       <c r="N29" s="7">
-        <v>4852568</v>
+        <v>4827999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,7 +7487,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7463,7 +7502,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803218</v>
+        <v>3658033</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7478,7 +7517,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7116853</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
